--- a/TerraceCalcs.xlsx
+++ b/TerraceCalcs.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ChadHouse\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB4C1D3-4947-4C54-8ADC-D2D6C877FDB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20630" windowHeight="10630" xr2:uid="{A29F0784-1940-4E33-B505-FB1E2A10DE3B}"/>
+    <workbookView xWindow="1365" yWindow="0" windowWidth="20625" windowHeight="10635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Balustrade Costing" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Base</t>
   </si>
@@ -70,16 +69,79 @@
   </si>
   <si>
     <t>100s</t>
+  </si>
+  <si>
+    <t>0% interest available over 36 months, 50% down</t>
+  </si>
+  <si>
+    <t>RTECH Welder</t>
+  </si>
+  <si>
+    <t>Corten Filler Rod</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>https://www.1stopweldingshop.com/Catalogue/Welding-Supplies/Welding-Wire/TIG-Welding-Rod/Low-Alloy-Steels/Masterweld-Corten-ER80S-G-TIG-Filler-Wire</t>
+  </si>
+  <si>
+    <t>https://www.r-techwelding.co.uk/tig-welder-240v-ac-dc-160amp/</t>
+  </si>
+  <si>
+    <t>Argon Gas</t>
+  </si>
+  <si>
+    <t>Stainless</t>
+  </si>
+  <si>
+    <t>Corten Sides</t>
+  </si>
+  <si>
+    <t>Corten tops</t>
+  </si>
+  <si>
+    <t>AMB Stainless</t>
+  </si>
+  <si>
+    <t>https://www.boconline.co.uk/shop/en/uk/pureshield-argon-size-x-11-x?in%EF%AC%81nity=ict2~net~gaw~ar~295702186716~kw~~mt~~cmp~RM+-+Shopping+-+Gas+-+UK~ag~Pureshield&amp;gclid=Cj0KCQjwuLPnBRDjARIsACDzGL24XdMluqWHuA95eg6nq8ZPLZ-GQwhN_15qLDAp0q7B11e_EwA8814aAt-IEALw_wcB&amp;gclsrc=aw.ds</t>
+  </si>
+  <si>
+    <t>M12 Slotted Nuts</t>
+  </si>
+  <si>
+    <t>M12 Nuts</t>
+  </si>
+  <si>
+    <t>https://www.accu.co.uk/en/46-hexagon-nuts#elasticsearch_id_feature_736945=736945_697&amp;elasticsearch_id_feature_736964=736964_701&amp;id_elasticsearch_category=46&amp;orderby=ranking&amp;orderway=asc</t>
+  </si>
+  <si>
+    <t>Expoy Resin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -102,13 +164,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -420,27 +487,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB3A447-2F0A-4854-A8F1-10019BCC95F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="14.36328125" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" customWidth="1"/>
-    <col min="12" max="12" width="17.90625" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>0.6*0.6</f>
         <v>0.36</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L3">
         <v>13</v>
       </c>
@@ -452,12 +519,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>6</v>
       </c>
@@ -474,7 +541,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <f>B4*B5</f>
         <v>72</v>
@@ -505,7 +572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="H7">
         <v>300</v>
       </c>
@@ -522,7 +589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N8">
         <v>23</v>
       </c>
@@ -536,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="M9">
         <f>SUM(N7:N9)</f>
         <v>69</v>
@@ -558,7 +625,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N10">
         <v>23</v>
       </c>
@@ -572,7 +639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>120</v>
       </c>
@@ -593,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N12">
         <v>23</v>
       </c>
@@ -607,7 +674,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N13">
         <v>23</v>
       </c>
@@ -621,7 +688,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="N14">
         <v>23</v>
       </c>
@@ -635,7 +702,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
       <c r="L20">
         <v>71</v>
       </c>
@@ -649,7 +716,7 @@
         <v>48.38</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>0</v>
       </c>
@@ -690,7 +757,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>1</v>
       </c>
@@ -727,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>0</v>
       </c>
@@ -764,7 +831,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>1</v>
       </c>
@@ -801,7 +868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>0</v>
       </c>
@@ -838,7 +905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
       <c r="K27" t="s">
         <v>8</v>
       </c>
@@ -859,7 +926,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
       <c r="L29">
         <f>_xlfn.CEILING.MATH(L27/30)</f>
         <v>8</v>
@@ -877,7 +944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
       <c r="L30">
         <f>L29*L20</f>
         <v>568</v>
@@ -902,4 +969,223 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1011.66</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>1011.66</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E13" si="0">C3*D3</f>
+        <v>86</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6">
+        <v>11.27</v>
+      </c>
+      <c r="D6" s="3">
+        <v>130</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1465.1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>130</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>149.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>0.87</v>
+      </c>
+      <c r="D8">
+        <f>63*3</f>
+        <v>189</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>164.43</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>0.24</v>
+      </c>
+      <c r="D9">
+        <v>189</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>45.36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f>SUM(E2:E13)</f>
+        <v>3250.0499999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F4"/>
+    <hyperlink ref="F8" r:id="rId3" location="elasticsearch_id_feature_736945=736945_697&amp;elasticsearch_id_feature_736964=736964_701&amp;id_elasticsearch_category=46&amp;orderby=ranking&amp;orderway=asc"/>
+    <hyperlink ref="F9" r:id="rId4" location="elasticsearch_id_feature_736945=736945_697&amp;elasticsearch_id_feature_736964=736964_701&amp;id_elasticsearch_category=46&amp;orderby=ranking&amp;orderway=asc"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/TerraceCalcs.xlsx
+++ b/TerraceCalcs.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Base</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Stainless</t>
   </si>
   <si>
-    <t>Corten Sides</t>
-  </si>
-  <si>
-    <t>Corten tops</t>
-  </si>
-  <si>
     <t>AMB Stainless</t>
   </si>
   <si>
@@ -117,6 +111,24 @@
   </si>
   <si>
     <t>Expoy Resin</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Trendy Nuts</t>
+  </si>
+  <si>
+    <t>Corten Steel</t>
+  </si>
+  <si>
+    <t>Steel Sides</t>
+  </si>
+  <si>
+    <t>Steel Tops</t>
+  </si>
+  <si>
+    <t>Rage 2 Cutter</t>
   </si>
 </sst>
 </file>
@@ -973,217 +985,251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D5" s="1">
         <v>1011.66</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="E2">
-        <f>C2*D2</f>
+      <c r="F5">
+        <f>D5*E5</f>
         <v>1011.66</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="D6">
         <v>43</v>
       </c>
-      <c r="D3">
+      <c r="E6">
         <v>2</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E13" si="0">C3*D3</f>
+      <c r="F6">
+        <f t="shared" ref="F6:F16" si="0">D6*E6</f>
         <v>86</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C4">
+      <c r="D7">
         <v>100</v>
       </c>
-      <c r="D4">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="F7">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="D8">
         <v>12</v>
       </c>
-      <c r="D5">
+      <c r="E8">
         <v>14</v>
       </c>
-      <c r="E5">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="G8" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <f xml:space="preserve"> 11.27 * B3 + 5.7 * (1-B3)</f>
         <v>11.27</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E9" s="3">
         <v>130</v>
       </c>
-      <c r="E6">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>1465.1</v>
       </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3">
+        <f xml:space="preserve"> 1.15 * B3 + 0.6 * (1-B3)</f>
         <v>1.1499999999999999</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E10" s="3">
         <v>130</v>
       </c>
-      <c r="E7">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>149.5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
+      <c r="D11">
         <v>0.87</v>
       </c>
-      <c r="D8">
-        <f>63*3</f>
+      <c r="E11">
+        <f>63*3 * B2</f>
         <v>189</v>
       </c>
-      <c r="E8">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>164.43</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="G11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12">
+        <v>0.24</v>
+      </c>
+      <c r="E12">
+        <f>189 + 189 * (1-B2)</f>
+        <v>189</v>
+      </c>
+      <c r="F12">
+        <f>D12*E12</f>
+        <v>45.36</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C9">
-        <v>0.24</v>
-      </c>
-      <c r="D9">
-        <v>189</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>45.36</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10">
+      <c r="D13">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="E13">
         <v>6</v>
       </c>
-      <c r="E10">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E11">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E13">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <f>SUM(E2:E13)</f>
-        <v>3250.0499999999997</v>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <f>SUM(F5:F16)</f>
+        <v>3450.0499999999997</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F2" r:id="rId2"/>
-    <hyperlink ref="F4"/>
-    <hyperlink ref="F8" r:id="rId3" location="elasticsearch_id_feature_736945=736945_697&amp;elasticsearch_id_feature_736964=736964_701&amp;id_elasticsearch_category=46&amp;orderby=ranking&amp;orderway=asc"/>
-    <hyperlink ref="F9" r:id="rId4" location="elasticsearch_id_feature_736945=736945_697&amp;elasticsearch_id_feature_736964=736964_701&amp;id_elasticsearch_category=46&amp;orderby=ranking&amp;orderway=asc"/>
+    <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G7"/>
+    <hyperlink ref="G11" r:id="rId3" location="elasticsearch_id_feature_736945=736945_697&amp;elasticsearch_id_feature_736964=736964_701&amp;id_elasticsearch_category=46&amp;orderby=ranking&amp;orderway=asc"/>
+    <hyperlink ref="G12" r:id="rId4" location="elasticsearch_id_feature_736945=736945_697&amp;elasticsearch_id_feature_736964=736964_701&amp;id_elasticsearch_category=46&amp;orderby=ranking&amp;orderway=asc"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
